--- a/R_code/model_xwalk_SDUSD.xlsx
+++ b/R_code/model_xwalk_SDUSD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmath_000\Documents\Research\Heterogeneous-Teacher-Value-Added\R_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876E7BD0-D1CD-4237-A476-5FFBD5A9ECD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B635BBB-D25F-4066-82EF-9A68925DE132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">nsims </t>
   </si>
@@ -33,9 +33,6 @@
     <t>npoints</t>
   </si>
   <si>
-    <t>single_run</t>
-  </si>
-  <si>
     <t>test_SEM</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>bin</t>
+  </si>
+  <si>
+    <t>n_cohorts</t>
+  </si>
+  <si>
+    <t>num_cats</t>
+  </si>
+  <si>
+    <t>pretest_coef</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +164,12 @@
         <bgColor rgb="FFF8CBAD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -186,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -194,6 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,33 +589,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="5.578125" customWidth="1"/>
     <col min="2" max="2" width="7.5234375" customWidth="1"/>
-    <col min="3" max="3" width="8.62890625" customWidth="1"/>
-    <col min="4" max="4" width="8.1015625" customWidth="1"/>
-    <col min="5" max="5" width="10.5234375" customWidth="1"/>
-    <col min="6" max="6" width="13.62890625" customWidth="1"/>
-    <col min="7" max="8" width="7.578125" customWidth="1"/>
-    <col min="9" max="9" width="10.3671875" customWidth="1"/>
-    <col min="10" max="10" width="6.89453125" customWidth="1"/>
-    <col min="11" max="18" width="7.7890625" customWidth="1"/>
-    <col min="19" max="19" width="4.9453125" customWidth="1"/>
-    <col min="20" max="20" width="11.68359375" customWidth="1"/>
-    <col min="21" max="21" width="11.734375" customWidth="1"/>
-    <col min="22" max="22" width="6.83984375" customWidth="1"/>
-    <col min="23" max="23" width="7.20703125" customWidth="1"/>
-    <col min="24" max="24" width="5.734375" customWidth="1"/>
+    <col min="3" max="3" width="8.1015625" customWidth="1"/>
+    <col min="4" max="4" width="10.5234375" customWidth="1"/>
+    <col min="5" max="5" width="13.62890625" customWidth="1"/>
+    <col min="6" max="7" width="7.578125" customWidth="1"/>
+    <col min="8" max="8" width="10.3671875" customWidth="1"/>
+    <col min="9" max="9" width="6.89453125" customWidth="1"/>
+    <col min="10" max="16" width="7.7890625" customWidth="1"/>
+    <col min="17" max="19" width="8.62890625" customWidth="1"/>
+    <col min="20" max="20" width="7.7890625" customWidth="1"/>
+    <col min="21" max="21" width="4.9453125" customWidth="1"/>
+    <col min="22" max="22" width="11.68359375" customWidth="1"/>
+    <col min="23" max="23" width="11.734375" customWidth="1"/>
+    <col min="24" max="24" width="6.83984375" customWidth="1"/>
+    <col min="25" max="25" width="7.20703125" customWidth="1"/>
+    <col min="26" max="26" width="5.734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,32 +665,38 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>20</v>
       </c>
@@ -684,28 +704,28 @@
         <v>500</v>
       </c>
       <c r="C2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2">
+        <v>0.1</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.1</v>
       </c>
       <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" t="s">
-        <v>26</v>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -717,36 +737,42 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O2">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="P2">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0.9</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>0.4</v>
+      </c>
+      <c r="V2">
+        <v>0.8</v>
+      </c>
+      <c r="W2">
+        <v>0.2</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2">
+      <c r="Y2">
         <v>0.4</v>
       </c>
-      <c r="T2">
-        <v>0.8</v>
-      </c>
-      <c r="U2">
-        <v>0.2</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>0.4</v>
-      </c>
-      <c r="X2">
+      <c r="Z2">
         <v>0.2</v>
       </c>
     </row>

--- a/R_code/model_xwalk_SDUSD.xlsx
+++ b/R_code/model_xwalk_SDUSD.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmath_000\Documents\Research\Heterogeneous-Teacher-Value-Added\R_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B635BBB-D25F-4066-82EF-9A68925DE132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA105E-2A7B-4A23-975A-8A1F9AAB8AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -592,31 +592,37 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.578125" customWidth="1"/>
-    <col min="2" max="2" width="7.5234375" customWidth="1"/>
-    <col min="3" max="3" width="8.1015625" customWidth="1"/>
-    <col min="4" max="4" width="10.5234375" customWidth="1"/>
-    <col min="5" max="5" width="13.62890625" customWidth="1"/>
-    <col min="6" max="7" width="7.578125" customWidth="1"/>
-    <col min="8" max="8" width="10.3671875" customWidth="1"/>
-    <col min="9" max="9" width="6.89453125" customWidth="1"/>
-    <col min="10" max="16" width="7.7890625" customWidth="1"/>
-    <col min="17" max="19" width="8.62890625" customWidth="1"/>
-    <col min="20" max="20" width="7.7890625" customWidth="1"/>
-    <col min="21" max="21" width="4.9453125" customWidth="1"/>
-    <col min="22" max="22" width="11.68359375" customWidth="1"/>
-    <col min="23" max="23" width="11.734375" customWidth="1"/>
-    <col min="24" max="24" width="6.83984375" customWidth="1"/>
-    <col min="25" max="25" width="7.20703125" customWidth="1"/>
-    <col min="26" max="26" width="5.734375" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>

--- a/R_code/model_xwalk_SDUSD.xlsx
+++ b/R_code/model_xwalk_SDUSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nmath_000\Documents\Research\Heterogeneous-Teacher-Value-Added\R_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBA105E-2A7B-4A23-975A-8A1F9AAB8AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DBEB86-1842-41C6-B38C-CC73A9B5CB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="74715" yWindow="1770" windowWidth="21600" windowHeight="11010" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t xml:space="preserve">nsims </t>
   </si>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <v>0.9</v>
@@ -779,6 +779,326 @@
         <v>0.4</v>
       </c>
       <c r="Z2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.3</v>
+      </c>
+      <c r="O3">
+        <v>0.6</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>0.9</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0.4</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3">
+        <v>0.2</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.4</v>
+      </c>
+      <c r="Z3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>0.9</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>0.4</v>
+      </c>
+      <c r="V4">
+        <v>0.8</v>
+      </c>
+      <c r="W4">
+        <v>0.2</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0.4</v>
+      </c>
+      <c r="Z4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="G5">
+        <v>0.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5">
+        <v>0.6</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>0.9</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>0.4</v>
+      </c>
+      <c r="V5">
+        <v>0.8</v>
+      </c>
+      <c r="W5">
+        <v>0.2</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0.4</v>
+      </c>
+      <c r="Z5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>0.1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>0.9</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>0.4</v>
+      </c>
+      <c r="V6">
+        <v>0.8</v>
+      </c>
+      <c r="W6">
+        <v>0.2</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>0.4</v>
+      </c>
+      <c r="Z6">
         <v>0.2</v>
       </c>
     </row>
